--- a/VBA/SQLCreator/testdata/テーブル定義.xlsx
+++ b/VBA/SQLCreator/testdata/テーブル定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC93DCD-FAF2-40AF-9B3F-1919BDF2D19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92AAAA-1D48-4332-8C84-474835FA4F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1845" windowWidth="18885" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="1755" windowWidth="18885" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOGE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HCLM5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,10 +465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -571,6 +579,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <f>A6+1</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VBA/SQLCreator/testdata/テーブル定義.xlsx
+++ b/VBA/SQLCreator/testdata/テーブル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92AAAA-1D48-4332-8C84-474835FA4F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F549363-829C-4827-AACE-564A4A916509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="1755" windowWidth="18885" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="2025" windowWidth="18885" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOGE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -106,14 +106,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HCLM5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -465,10 +457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -579,22 +571,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <f>A6+1</f>
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VBA/SQLCreator/testdata/テーブル定義.xlsx
+++ b/VBA/SQLCreator/testdata/テーブル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F549363-829C-4827-AACE-564A4A916509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F03AF0E-FAEF-41EC-93AC-5476D50A1752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2025" windowWidth="18885" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOGE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HCLM5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HCLM6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,10 +465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -525,7 +533,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A6" si="0">A4+1</f>
+        <f t="shared" ref="A5:A8" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -568,6 +576,50 @@
         <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/VBA/SQLCreator/testdata/テーブル定義.xlsx
+++ b/VBA/SQLCreator/testdata/テーブル定義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F03AF0E-FAEF-41EC-93AC-5476D50A1752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437FA69D-0DEA-4B63-8676-928F8A98C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -596,7 +596,9 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>

--- a/VBA/SQLCreator/testdata/テーブル定義.xlsx
+++ b/VBA/SQLCreator/testdata/テーブル定義.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437FA69D-0DEA-4B63-8676-928F8A98C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2CDD45-8E72-45B2-8C8A-50855118431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="930" windowWidth="23625" windowHeight="12540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOGE" sheetId="1" r:id="rId1"/>
+    <sheet name="sample_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -114,6 +115,14 @@
   </si>
   <si>
     <t>HCLM6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -467,9 +476,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -629,4 +636,80 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7BBD7C-C8F1-47D4-8CB9-B08DA39B6AE0}">
+  <dimension ref="A2:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VBA/SQLCreator/testdata/テーブル定義.xlsx
+++ b/VBA/SQLCreator/testdata/テーブル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2CDD45-8E72-45B2-8C8A-50855118431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F44DCF5-EA92-4049-B2AD-90B7FDEF10DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="930" windowWidth="23625" windowHeight="12540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7785" yWindow="1950" windowWidth="23625" windowHeight="12540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOGE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -124,6 +124,12 @@
   <si>
     <t>BIGINT</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -642,7 +648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7BBD7C-C8F1-47D4-8CB9-B08DA39B6AE0}">
   <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -674,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -694,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>

--- a/VBA/SQLCreator/testdata/テーブル定義.xlsx
+++ b/VBA/SQLCreator/testdata/テーブル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F44DCF5-EA92-4049-B2AD-90B7FDEF10DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB4183-645E-4454-8C83-8834C4EF217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="1950" windowWidth="23625" windowHeight="12540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOGE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -646,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7BBD7C-C8F1-47D4-8CB9-B08DA39B6AE0}">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -702,19 +706,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <f>A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/VBA/SQLCreator/testdata/テーブル定義.xlsx
+++ b/VBA/SQLCreator/testdata/テーブル定義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB4183-645E-4454-8C83-8834C4EF217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1718480-EC0A-4AB9-9EB8-B048438A3245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,13 +126,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>seq</t>
+    <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -653,7 +655,7 @@
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -686,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -730,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
